--- a/notebooks/output_data/GDP_Growth_Historical_data.xlsx
+++ b/notebooks/output_data/GDP_Growth_Historical_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,605 +436,753 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Change in %</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Change in %</t>
+          <t>Dates</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>17899</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>3.3</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1949-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>18264</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>3.3</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1950-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>18629</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3.7</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1951-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>18994</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>1.5</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1952-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>19360</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>5.6</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1953-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>19725</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>4.4</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1954-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>20090</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>4</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1955-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>20455</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>1.7</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1956-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>20821</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n">
         <v>2</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1957-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>21186</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" t="n">
         <v>1.3</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1958-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>21551</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" t="n">
         <v>4.3</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1959-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>21916</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" t="n">
         <v>6.3</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1960-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>22282</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" t="n">
         <v>2.7</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1961-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>22647</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" t="n">
         <v>1.1</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1962-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" t="n">
         <v>4.8</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1963-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>23377</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="A17" t="n">
         <v>5.7</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1964-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>23743</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="A18" t="n">
         <v>2.1</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1965-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>24108</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="A19" t="n">
         <v>1.6</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1966-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>24473</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" t="n">
         <v>2.8</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1967-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>24838</v>
-      </c>
-      <c r="B21" t="n">
+      <c r="A21" t="n">
         <v>5.5</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1968-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>25204</v>
-      </c>
-      <c r="B22" t="n">
+      <c r="A22" t="n">
         <v>1.9</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1969-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>25569</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" t="n">
         <v>2.7</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="B24" t="n">
+      <c r="A24" t="n">
         <v>3.6</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1971-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>26299</v>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" t="n">
         <v>4.4</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1972-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>26665</v>
-      </c>
-      <c r="B26" t="n">
+      <c r="A26" t="n">
         <v>6.5</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1973-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>27030</v>
-      </c>
-      <c r="B27" t="n">
+      <c r="A27" t="n">
         <v>-2.5</v>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1974-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>27395</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="A28" t="n">
         <v>-1.5</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1975-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27760</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="A29" t="n">
         <v>3</v>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1976-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28126</v>
-      </c>
-      <c r="B30" t="n">
+      <c r="A30" t="n">
         <v>2.5</v>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1977-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>28491</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="A31" t="n">
         <v>4.2</v>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1978-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>28856</v>
-      </c>
-      <c r="B32" t="n">
+      <c r="A32" t="n">
         <v>3.7</v>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1979-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>29221</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="A33" t="n">
         <v>-2.1</v>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1980-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>29587</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="A34" t="n">
         <v>-0.7</v>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1981-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>29952</v>
-      </c>
-      <c r="B35" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1982-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>30317</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="A36" t="n">
         <v>4.2</v>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1983-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>30682</v>
-      </c>
-      <c r="B37" t="n">
+      <c r="A37" t="n">
         <v>2.2</v>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1984-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>31048</v>
-      </c>
-      <c r="B38" t="n">
+      <c r="A38" t="n">
         <v>4.1</v>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1985-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>31413</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="A39" t="n">
         <v>3.1</v>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1986-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>31778</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="A40" t="n">
         <v>5.4</v>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1987-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>32143</v>
-      </c>
-      <c r="B41" t="n">
+      <c r="A41" t="n">
         <v>5.4</v>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1988-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>32509</v>
-      </c>
-      <c r="B42" t="n">
+      <c r="A42" t="n">
         <v>2.4</v>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1989-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>32874</v>
-      </c>
-      <c r="B43" t="n">
+      <c r="A43" t="n">
         <v>0.6</v>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1990-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>33239</v>
-      </c>
-      <c r="B44" t="n">
+      <c r="A44" t="n">
         <v>-1.4</v>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1991-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>33604</v>
-      </c>
-      <c r="B45" t="n">
+      <c r="A45" t="n">
         <v>0.2</v>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1992-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>33970</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="A46" t="n">
         <v>2.3</v>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1993-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>34335</v>
-      </c>
-      <c r="B47" t="n">
+      <c r="A47" t="n">
         <v>3.4</v>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1994-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>34700</v>
-      </c>
-      <c r="B48" t="n">
+      <c r="A48" t="n">
         <v>2.4</v>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1995-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>35065</v>
-      </c>
-      <c r="B49" t="n">
+      <c r="A49" t="n">
         <v>2.6</v>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1996-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>35431</v>
-      </c>
-      <c r="B50" t="n">
+      <c r="A50" t="n">
         <v>4.9</v>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1997-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>35796</v>
-      </c>
-      <c r="B51" t="n">
+      <c r="A51" t="n">
         <v>3.4</v>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1998-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>36161</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="A52" t="n">
         <v>3.1</v>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1999-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>36526</v>
-      </c>
-      <c r="B53" t="n">
+      <c r="A53" t="n">
         <v>4.3</v>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>36892</v>
-      </c>
-      <c r="B54" t="n">
+      <c r="A54" t="n">
         <v>2.6</v>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2001-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>37257</v>
-      </c>
-      <c r="B55" t="n">
+      <c r="A55" t="n">
         <v>1.8</v>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2002-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>37622</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="A56" t="n">
         <v>3.1</v>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2003-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>37987</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="A57" t="n">
         <v>2.4</v>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2004-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>38353</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="A58" t="n">
         <v>2.7</v>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2005-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>38718</v>
-      </c>
-      <c r="B59" t="n">
+      <c r="A59" t="n">
         <v>2.4</v>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>39083</v>
-      </c>
-      <c r="B60" t="n">
+      <c r="A60" t="n">
         <v>2.6</v>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2007-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>39448</v>
-      </c>
-      <c r="B61" t="n">
+      <c r="A61" t="n">
         <v>-0.2</v>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2008-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>39814</v>
-      </c>
-      <c r="B62" t="n">
+      <c r="A62" t="n">
         <v>-4.6</v>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2009-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>40179</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="A63" t="n">
         <v>2.2</v>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2010-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>40544</v>
-      </c>
-      <c r="B64" t="n">
+      <c r="A64" t="n">
         <v>1.1</v>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2011-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>40909</v>
-      </c>
-      <c r="B65" t="n">
+      <c r="A65" t="n">
         <v>1.5</v>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>41275</v>
-      </c>
-      <c r="B66" t="n">
+      <c r="A66" t="n">
         <v>1.8</v>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2013-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>41640</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="A67" t="n">
         <v>3.2</v>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="B68" t="n">
+      <c r="A68" t="n">
         <v>2.2</v>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="A69" t="n">
         <v>1.9</v>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="B70" t="n">
+      <c r="A70" t="n">
         <v>2.7</v>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B71" t="n">
+      <c r="A71" t="n">
         <v>1.4</v>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B72" t="n">
+      <c r="A72" t="n">
         <v>1.6</v>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B73" t="n">
+      <c r="A73" t="n">
         <v>-10.4</v>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B74" t="n">
+      <c r="A74" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B75" t="n">
+      <c r="A75" t="n">
         <v>4.3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
       </c>
     </row>
   </sheetData>
